--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF4BD53-3A5C-EC45-8029-266AE83EFA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1991A9-90CE-7A44-8D4C-08715A755F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="500" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
+    <workbookView xWindow="18860" yWindow="500" windowWidth="32340" windowHeight="20500" activeTab="1" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
   <si>
     <t>Method</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>/pages/index.jsx</t>
+  </si>
+  <si>
+    <t>/settings/account</t>
+  </si>
+  <si>
+    <t>/settings/password</t>
   </si>
   <si>
     <t xml:space="preserve">POST </t>
@@ -409,6 +415,18 @@
 dateOfBirth
 password
 passwordConfrimation</t>
+  </si>
+  <si>
+    <t>/settings</t>
+  </si>
+  <si>
+    <t>/settings/index.jsx</t>
+  </si>
+  <si>
+    <t>/settings/account/index.jsx</t>
+  </si>
+  <si>
+    <t>/settings/password/index.jsx</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1097,19 +1115,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G3" s="11">
         <v>406</v>
@@ -1117,22 +1135,22 @@
     </row>
     <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G4" s="4">
         <v>406</v>
@@ -1143,19 +1161,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4">
         <v>406</v>
@@ -1175,19 +1193,19 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>18</v>
@@ -1198,19 +1216,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>18</v>
@@ -1227,7 +1245,7 @@
     </row>
     <row r="50" spans="68:68" x14ac:dyDescent="0.2">
       <c r="BP50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1241,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B0B0AB-285A-984C-9A11-66BA095C2B90}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1296,13 +1314,13 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1310,13 +1328,55 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>8</v>
@@ -1398,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>44</v>
@@ -1413,10 +1473,10 @@
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" s="22"/>
       <c r="I5" s="18" t="s">
@@ -1486,14 +1546,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="28"/>
       <c r="E9" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>26</v>
@@ -1514,7 +1574,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>15</v>
@@ -1526,14 +1586,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>27</v>
@@ -1545,17 +1605,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="22"/>
     </row>
@@ -1568,10 +1628,10 @@
       </c>
       <c r="C13" s="22"/>
       <c r="E13" s="21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="22"/>
     </row>
@@ -1596,19 +1656,19 @@
       </c>
       <c r="C15" s="22"/>
       <c r="I15" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="28"/>
       <c r="E16" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
@@ -1631,18 +1691,18 @@
         <v>11</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="21" t="s">
@@ -1672,7 +1732,7 @@
       </c>
       <c r="G19" s="22"/>
       <c r="I19" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1694,7 +1754,7 @@
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
       <c r="E21" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
@@ -1705,10 +1765,10 @@
     <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
       <c r="E22" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="13"/>
@@ -1716,10 +1776,10 @@
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
       <c r="E23" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="13"/>
@@ -1727,10 +1787,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D24" s="13"/>
       <c r="E24" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G24" s="22"/>
     </row>
@@ -1748,11 +1808,11 @@
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="C27" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="39"/>
@@ -1770,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1815,7 +1875,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="17"/>
       <c r="E32" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>27</v>
@@ -1837,10 +1897,10 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E34" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G34" s="28"/>
     </row>
@@ -1852,7 +1912,7 @@
     </row>
     <row r="36" spans="3:8" ht="21" x14ac:dyDescent="0.25">
       <c r="C36" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -1861,7 +1921,7 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -1870,7 +1930,7 @@
     </row>
     <row r="38" spans="3:8" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
@@ -1878,7 +1938,7 @@
     </row>
     <row r="39" spans="3:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="8"/>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1991A9-90CE-7A44-8D4C-08715A755F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843D3AD-6115-6749-B301-A59AE24081E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="500" windowWidth="32340" windowHeight="20500" activeTab="1" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
+    <workbookView xWindow="16840" yWindow="5900" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
   <si>
     <t>Method</t>
   </si>
@@ -387,21 +387,6 @@
   </si>
   <si>
     <t>/api/my/profile/</t>
-  </si>
-  <si>
-    <t>{
-    "id": String,
-    "userName": String
-    "name": String,
-    "email": String
-    "bio": String,
-    "avatarImg": String,
-    "headerImg": String,
-    "location": String,
-    "website": String,
-    "dateOfBirth": String,
-    "joinDate": String
-}</t>
   </si>
   <si>
     <t>userName
@@ -427,6 +412,132 @@
   </si>
   <si>
     <t>/settings/password/index.jsx</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/api/my/notifications/post</t>
+  </si>
+  <si>
+    <t>/api/my/notifications/post.jsx</t>
+  </si>
+  <si>
+    <t>useId
+content</t>
+  </si>
+  <si>
+    <t>{
+    "id": Int,
+    "userId": String,
+    "content": String,
+    "sendDate": Object,
+    "readDate": null,
+    "received": false
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": Int,
+    "userId": String,
+    "content": String,
+    "sendDate": Object,
+    "readDate": Object,
+    "received": true
+}</t>
+  </si>
+  <si>
+    <t>/api/my/notifications/read</t>
+  </si>
+  <si>
+    <t>/api/my/notifications/read.jsx</t>
+  </si>
+  <si>
+    <t>/api/my/posts</t>
+  </si>
+  <si>
+    <t>/api/my/posts.jsx</t>
+  </si>
+  <si>
+    <t>content
+mediaUrl
+postType
+postId</t>
+  </si>
+  <si>
+    <t>{
+    "id": Int,
+    "userId": String
+    "postId": Int,
+    "content": String,
+    "mediaUrl": String,
+    "date": Object,
+    "editDate": Object,
+    "postType": String
+}</t>
+  </si>
+  <si>
+    <t>/api/my/posts/:id</t>
+  </si>
+  <si>
+    <t>/api/my/posts/[id].jsx</t>
+  </si>
+  <si>
+    <t>401, 404, 406</t>
+  </si>
+  <si>
+    <t>/api/usersId/[id]/index.jsx</t>
+  </si>
+  <si>
+    <t>{
+    "id": String,
+    "userName": String
+    "name": String,
+    "email": String
+    "bio": String,
+    "avatarImg": String,
+    "headerImg": String,
+    "location": String,
+    "website": String,
+    "dateOfBirth": Object,
+    "joinDate": Object
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": String
+    "userName": String,
+    "name": String,
+    "email": String,
+    "bio": String,
+    "avatarImg": String
+    "headerImg": String,
+    "location": String,
+    "website": String,
+    "dateOfBirth": Object,
+    "joinDate": Object
+}</t>
+  </si>
+  <si>
+    <t>/api/usersId</t>
+  </si>
+  <si>
+    <t>/api/users/[username]/index.jsx</t>
+  </si>
+  <si>
+    <t>/api/users/:username/following</t>
+  </si>
+  <si>
+    <t>/api/users/:username</t>
+  </si>
+  <si>
+    <t>/api/users/:username/following.jsx</t>
+  </si>
+  <si>
+    <t>/api/users/:username/followers</t>
+  </si>
+  <si>
+    <t>/api/users/:username/followers.jsx</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1316,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>18</v>
@@ -1225,10 +1336,10 @@
         <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>18</v>
@@ -1242,6 +1353,214 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="50" spans="68:68" x14ac:dyDescent="0.2">
       <c r="BP50" s="2" t="s">
@@ -1261,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B0B0AB-285A-984C-9A11-66BA095C2B90}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+    <sheetView zoomScale="132" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1342,13 +1661,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1362,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1376,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843D3AD-6115-6749-B301-A59AE24081E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF200FDF-C58E-BD4E-8CEB-E554DE072205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16840" yWindow="5900" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
   <si>
     <t>Method</t>
   </si>
@@ -538,6 +538,18 @@
   </si>
   <si>
     <t>/api/users/:username/followers.jsx</t>
+  </si>
+  <si>
+    <t>/api/my/follows-likes-bookmarks</t>
+  </si>
+  <si>
+    <t>/api/my/follows-likes-bookmarks.jsx</t>
+  </si>
+  <si>
+    <t>/api/my/interaction</t>
+  </si>
+  <si>
+    <t>/api/my/interaction.jsx</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,6 +1573,40 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="50" spans="68:68" x14ac:dyDescent="0.2">
       <c r="BP50" s="2" t="s">

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF200FDF-C58E-BD4E-8CEB-E554DE072205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A9EA2-3310-A844-AF92-B215C419C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16840" yWindow="5900" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>Method</t>
   </si>
@@ -540,16 +540,43 @@
     <t>/api/users/:username/followers.jsx</t>
   </si>
   <si>
-    <t>/api/my/follows-likes-bookmarks</t>
-  </si>
-  <si>
-    <t>/api/my/follows-likes-bookmarks.jsx</t>
-  </si>
-  <si>
     <t>/api/my/interaction</t>
   </si>
   <si>
     <t>/api/my/interaction.jsx</t>
+  </si>
+  <si>
+    <t>{
+    "id": Int,
+    "postId": Int,
+    "postUserId": String,
+    "interactionUserId": String,
+    "date": Object,
+    "actionType": String
+}</t>
+  </si>
+  <si>
+    <t>postId
+interactionUserId
+actionType</t>
+  </si>
+  <si>
+    <t>/api/my/interactions.jsx</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": Int,
+        "postId": Int,
+        "postUserId": String,
+        "interactionUserId": String,
+        "date": Object,
+        "actionType": String
+    }
+]</t>
+  </si>
+  <si>
+    <t>/api/my/interactions</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1574,39 +1601,60 @@
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="F23" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="G23" s="34" t="s">
-        <v>131</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="50" spans="68:68" x14ac:dyDescent="0.2">
       <c r="BP50" s="2" t="s">

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A9EA2-3310-A844-AF92-B215C419C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125D3B6-DD1A-394C-9963-B2C6EAE88796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="5900" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
+    <workbookView xWindow="16600" yWindow="5800" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
   <si>
     <t>Method</t>
   </si>
@@ -577,6 +577,25 @@
   </si>
   <si>
     <t>/api/my/interactions</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": Int,
+        "postId": null,
+        "postUserId": String,
+        "interactionUserId": String,
+        "date": Object,
+        "actionType": String,
+        "interactionUser": {
+            "id": String
+            "name": String,
+            "userName": String,
+            "avatarImg": String,
+            "bio": String
+        }
+    }
+]</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1577,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="289" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1574,8 +1593,11 @@
       <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="289" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1590,6 +1612,9 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125D3B6-DD1A-394C-9963-B2C6EAE88796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FD4CB8-DEE8-F64B-8A4B-4BA49ADA2EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16600" yWindow="5800" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="157">
   <si>
     <t>Method</t>
   </si>
@@ -597,12 +597,67 @@
     }
 ]</t>
   </si>
+  <si>
+    <t>/api/post/:id</t>
+  </si>
+  <si>
+    <t>/api/post/[id].jsx</t>
+  </si>
+  <si>
+    <t>{
+    "id": Int,
+    "userId": String,
+    "postId": Int,
+    "content": String,
+    "mediaUrl": String,
+    "date": Object,
+    "editDate": Object,
+    "postType": String
+}</t>
+  </si>
+  <si>
+    <t>/api/my/bookmarks</t>
+  </si>
+  <si>
+    <t>/api/my/bookmarks/index.jsx</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": Int,
+        "postId": Int,
+        "postUserId": String,
+        "interactionUserId": String,
+        "date": Object,
+        "actionType": String,
+        "post": {
+            "id": Int,
+            "userId": String,
+            "postId": Int,
+            "content": String,
+            "mediaUrl": String,
+            "date": Object,
+            "editDate": Object,
+            "postType": String,
+            "user": {
+                "id": String,
+                "name": String,
+                "userName": String,
+                "avatarImg": String
+            }
+        }
+    }
+]</t>
+  </si>
+  <si>
+    <t>404, 406</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -640,6 +695,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -836,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -912,6 +972,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1573,7 @@
         <v>128</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1542,7 +1605,7 @@
         <v>134</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1574,7 +1637,7 @@
         <v>134</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="289" x14ac:dyDescent="0.2">
@@ -1596,6 +1659,9 @@
       <c r="F19" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="G19" s="34" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="289" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1615,6 +1681,9 @@
       </c>
       <c r="F20" s="5" t="s">
         <v>149</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1668,21 +1737,76 @@
       <c r="F23" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="34">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="50" spans="68:68" x14ac:dyDescent="0.2">
-      <c r="BP50" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="51" spans="68:68" x14ac:dyDescent="0.2">
+      <c r="BP51" s="2" t="s">
         <v>86</v>
       </c>
     </row>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FD4CB8-DEE8-F64B-8A4B-4BA49ADA2EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3A4D4-139D-3940-A4B4-8D46C45B4BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16600" yWindow="5800" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
   <si>
     <t>Method</t>
   </si>
@@ -651,6 +651,24 @@
   </si>
   <si>
     <t>404, 406</t>
+  </si>
+  <si>
+    <t>/api/my/notifications/index.jsx</t>
+  </si>
+  <si>
+    <t>/api/my/notifications</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": Int,
+        "userId": String,
+        "content": String,
+        "sendDate": Object,
+        "readDate": Object,
+        "received": Boolean
+    }
+]</t>
   </si>
 </sst>
 </file>
@@ -958,6 +976,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -972,9 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,15 +1327,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -1475,50 +1493,50 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1530,189 +1548,203 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="2" t="b">
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="34" t="s">
+      <c r="F15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="289" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="17" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="2" t="b">
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="34" t="s">
+      <c r="F17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="34">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="F21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>18</v>
@@ -1720,45 +1752,45 @@
     </row>
     <row r="23" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="34">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>153</v>
+      <c r="B24" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>18</v>
@@ -1836,12 +1868,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -1976,27 +2008,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="E3" s="37" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="E3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
       <c r="I3" s="18" t="s">
         <v>47</v>
       </c>
@@ -2229,11 +2261,11 @@
         <v>15</v>
       </c>
       <c r="C16" s="28"/>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
       <c r="I16" s="14" t="s">
         <v>44</v>
       </c>
@@ -2373,11 +2405,11 @@
         <v>74</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3A4D4-139D-3940-A4B4-8D46C45B4BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F05706-9308-004A-A502-5DE4728700C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="5800" windowWidth="32340" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
+    <workbookView xWindow="26400" yWindow="720" windowWidth="25860" windowHeight="20500" activeTab="2" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="173">
   <si>
     <t>Method</t>
   </si>
@@ -156,9 +156,6 @@
     <t>MEDIA</t>
   </si>
   <si>
-    <t>followingUserId</t>
-  </si>
-  <si>
     <t>model Post</t>
   </si>
   <si>
@@ -171,30 +168,12 @@
     <t>REPLY</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>All (enum)</t>
-  </si>
-  <si>
-    <t>Retweet, Reply</t>
-  </si>
-  <si>
-    <t>Tweet, ReTweet, Media, Reply</t>
-  </si>
-  <si>
-    <t>Media, Reply</t>
-  </si>
-  <si>
     <t>received</t>
   </si>
   <si>
     <t>Boolean</t>
   </si>
   <si>
-    <t>@default(FALSE)</t>
-  </si>
-  <si>
     <t>sendDate</t>
   </si>
   <si>
@@ -207,9 +186,6 @@
     <t>userName</t>
   </si>
   <si>
-    <t>/pages/index.jsx</t>
-  </si>
-  <si>
     <t>/settings/account</t>
   </si>
   <si>
@@ -240,24 +216,12 @@
     <t>interactions</t>
   </si>
   <si>
-    <t>Interaction[]?</t>
-  </si>
-  <si>
     <t>headerImg</t>
   </si>
   <si>
     <t>avatarImg</t>
   </si>
   <si>
-    <t>Like, Bookmark, Follow</t>
-  </si>
-  <si>
-    <t>Like, Bookmark</t>
-  </si>
-  <si>
-    <t>Follow</t>
-  </si>
-  <si>
     <t>postType</t>
   </si>
   <si>
@@ -328,9 +292,6 @@
   </si>
   <si>
     <t>post</t>
-  </si>
-  <si>
-    <t>Post</t>
   </si>
   <si>
     <t>readDate</t>
@@ -669,6 +630,110 @@
         "received": Boolean
     }
 ]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": Int,
+        "userId": String,
+        "postId": Int,
+        "content": String,
+        "mediaUrl": String,
+        "date": Object,
+        "editDate": Object,
+        "postType": String,
+        "user": {
+            "id": String,
+            "userName": String,
+            "name": String,
+            "avatarImg": String,
+            "bio": String
+        }
+    },
+]</t>
+  </si>
+  <si>
+    <t>/api/all/posts</t>
+  </si>
+  <si>
+    <t>/api/all/posts.jsx</t>
+  </si>
+  <si>
+    <t>/api/all/users</t>
+  </si>
+  <si>
+    <t>/api/all/users.jsx</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": String,
+        "userName": String,
+        "name": String,
+        "bio": String,
+        "avatarImg": String
+    },
+]</t>
+  </si>
+  <si>
+    <t>/bookmarks</t>
+  </si>
+  <si>
+    <t>/compose</t>
+  </si>
+  <si>
+    <t>/notifications</t>
+  </si>
+  <si>
+    <t>/notifications/index.jsx</t>
+  </si>
+  <si>
+    <t>/compose/tweet/index.jsx</t>
+  </si>
+  <si>
+    <t>/bookmarks.jsx</t>
+  </si>
+  <si>
+    <t>/index.jsx</t>
+  </si>
+  <si>
+    <t>postUser</t>
+  </si>
+  <si>
+    <t>@relation("postUser")</t>
+  </si>
+  <si>
+    <t>interactionUser</t>
+  </si>
+  <si>
+    <t>@relation("interactionUser")</t>
+  </si>
+  <si>
+    <t>@default(now())</t>
+  </si>
+  <si>
+    <t>@relation(fields: [userId], references: [id])</t>
+  </si>
+  <si>
+    <t>@default(false)</t>
+  </si>
+  <si>
+    <t>postUserId</t>
+  </si>
+  <si>
+    <t>interactionUserId</t>
+  </si>
+  <si>
+    <t>Post?</t>
+  </si>
+  <si>
+    <t>@relation(fields: [postId], references: [id])</t>
+  </si>
+  <si>
+    <t>@relation("interactionUser", fields: [interactionUserId], references: [id])</t>
+  </si>
+  <si>
+    <t>@relation("postUser", fields: [postUserId], references: [id])</t>
   </si>
 </sst>
 </file>
@@ -914,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -993,6 +1058,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,19 +1439,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G3" s="11">
         <v>406</v>
@@ -1385,22 +1459,22 @@
     </row>
     <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G4" s="4">
         <v>406</v>
@@ -1411,19 +1485,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G5" s="4">
         <v>406</v>
@@ -1443,19 +1517,19 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>18</v>
@@ -1466,19 +1540,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>18</v>
@@ -1495,22 +1569,22 @@
     </row>
     <row r="10" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>18</v>
@@ -1521,22 +1595,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,22 +1627,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1585,22 +1659,22 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="289" x14ac:dyDescent="0.2">
@@ -1608,22 +1682,22 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="289" x14ac:dyDescent="0.2">
@@ -1631,22 +1705,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1663,19 +1737,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>18</v>
@@ -1686,42 +1760,42 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G20" s="34">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>18</v>
@@ -1729,22 +1803,22 @@
     </row>
     <row r="22" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>18</v>
@@ -1755,19 +1829,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>18</v>
@@ -1778,19 +1852,19 @@
         <v>17</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>18</v>
@@ -1810,22 +1884,22 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1837,9 +1911,55 @@
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
     </row>
+    <row r="28" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="51" spans="68:68" x14ac:dyDescent="0.2">
       <c r="BP51" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1853,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B0B0AB-285A-984C-9A11-66BA095C2B90}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1900,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1908,13 +2028,13 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1922,13 +2042,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1936,13 +2056,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,13 +2070,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1964,13 +2084,55 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1983,21 +2145,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9370B8C7-417E-834D-84DE-B3DCFA19630E}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24" style="18" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" style="18" customWidth="1"/>
     <col min="9" max="9" width="25.83203125" style="18" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="18"/>
@@ -2025,13 +2187,10 @@
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="40"/>
-      <c r="I3" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
@@ -2043,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>8</v>
@@ -2052,30 +2211,26 @@
         <v>11</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="23" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="I5" s="18" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
@@ -2086,15 +2241,12 @@
       </c>
       <c r="C6" s="22"/>
       <c r="E6" s="21" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="I6" s="18" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -2107,14 +2259,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="I7" s="18" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2126,35 +2277,29 @@
       </c>
       <c r="C8" s="22"/>
       <c r="E8" s="21" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="28"/>
       <c r="E9" s="23" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="I9" s="18" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2168,48 +2313,42 @@
         <v>37</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="I10" s="18" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G11" s="22"/>
-      <c r="I11" s="18" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G12" s="22"/>
     </row>
@@ -2222,12 +2361,14 @@
       </c>
       <c r="C13" s="22"/>
       <c r="E13" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="22"/>
+        <v>83</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
@@ -2249,33 +2390,30 @@
         <v>15</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="I15" s="18" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="28" t="s">
+        <v>164</v>
+      </c>
       <c r="E16" s="38" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
-      <c r="I16" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C17" s="28"/>
       <c r="E17" s="23" t="s">
@@ -2285,268 +2423,281 @@
         <v>11</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="E18" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="I18" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>32</v>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="E19" s="23" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="I19" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="22"/>
       <c r="E20" s="23" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="8"/>
       <c r="E21" s="21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="28" t="s">
+        <v>164</v>
+      </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
       <c r="E22" s="23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
-      <c r="E23" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="22"/>
+      <c r="E23" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>172</v>
+      </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="13"/>
-      <c r="E24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="E24" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="E25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
       <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="C27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="C29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="23" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="C29" s="15" t="s">
+      <c r="G29" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="C30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E30" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="16" t="s">
-        <v>43</v>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="17"/>
-      <c r="E32" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="G32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="17"/>
+      <c r="E33" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="G33" s="22"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E34" s="23" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C36" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="E35" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="29" t="s">
-        <v>62</v>
+    <row r="37" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="3:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="C38" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="G38" s="8"/>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="3:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" ht="21" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C40" s="17"/>
+    <row r="40" spans="3:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="17"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -2582,9 +2733,15 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:G1"/>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F05706-9308-004A-A502-5DE4728700C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C33C4F3-CC7B-1243-87F5-AEC4A38F54A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="720" windowWidth="25860" windowHeight="20500" activeTab="2" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
+    <workbookView xWindow="25340" yWindow="720" windowWidth="25860" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="179">
   <si>
     <t>Method</t>
   </si>
@@ -734,6 +734,47 @@
   </si>
   <si>
     <t>@relation("postUser", fields: [postUserId], references: [id])</t>
+  </si>
+  <si>
+    <t>/api/post/stats/</t>
+  </si>
+  <si>
+    <t>/api/post/stats/[id].jsx</t>
+  </si>
+  <si>
+    <t>{
+    "replies": Int,
+    "retweets": Int,
+    "likes": Int,
+    "bookmarks": Int
+}</t>
+  </si>
+  <si>
+    <t>/api/post/replies/</t>
+  </si>
+  <si>
+    <t>/api/post/replies/[id].jsx</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": Int,
+        "userId": String,
+        "postId": Int,
+        "content": String,
+        "mediaUrl": String,
+        "date": Object,
+        "editDate": Object,
+        "postType": String,
+        "user": {
+            "id": String,
+            "userName": String,
+            "name": String,
+            "bio": String,
+            "avatarImg": String
+        }
+    },
+]</t>
   </si>
 </sst>
 </file>
@@ -1044,6 +1085,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1058,15 +1108,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,15 +1442,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -1902,63 +1943,109 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="2" t="b">
+      <c r="C31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G31" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="68:68" x14ac:dyDescent="0.2">
-      <c r="BP51" s="2" t="s">
+    <row r="53" spans="68:68" x14ac:dyDescent="0.2">
+      <c r="BP53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1988,12 +2075,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -2147,7 +2234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9370B8C7-417E-834D-84DE-B3DCFA19630E}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2170,27 +2257,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="E3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
@@ -2401,11 +2488,11 @@
       <c r="C16" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2508,26 +2595,26 @@
     </row>
     <row r="23" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="38" t="s">
         <v>172</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="13"/>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="38" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2560,11 +2647,11 @@
         <v>62</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C33C4F3-CC7B-1243-87F5-AEC4A38F54A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C21458-5DBC-FF41-8317-94B5A69A998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25340" yWindow="720" windowWidth="25860" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
   <si>
     <t>Method</t>
   </si>
@@ -748,33 +748,6 @@
     "likes": Int,
     "bookmarks": Int
 }</t>
-  </si>
-  <si>
-    <t>/api/post/replies/</t>
-  </si>
-  <si>
-    <t>/api/post/replies/[id].jsx</t>
-  </si>
-  <si>
-    <t>[
-    {
-        "id": Int,
-        "userId": String,
-        "postId": Int,
-        "content": String,
-        "mediaUrl": String,
-        "date": Object,
-        "editDate": Object,
-        "postType": String,
-        "user": {
-            "id": String,
-            "userName": String,
-            "name": String,
-            "bio": String,
-            "avatarImg": String
-        }
-    },
-]</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1819,7 +1792,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1943,109 +1916,86 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="2" t="b">
+      <c r="B29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+      <c r="F29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="68:68" x14ac:dyDescent="0.2">
-      <c r="BP53" s="2" t="s">
+    <row r="52" spans="68:68" x14ac:dyDescent="0.2">
+      <c r="BP52" s="2" t="s">
         <v>74</v>
       </c>
     </row>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C21458-5DBC-FF41-8317-94B5A69A998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE84CA45-74A3-C940-A0DC-C97533A5D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25340" yWindow="720" windowWidth="25860" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
   <si>
     <t>Method</t>
   </si>
@@ -748,6 +748,12 @@
     "likes": Int,
     "bookmarks": Int
 }</t>
+  </si>
+  <si>
+    <t>/api/my/posts/delete</t>
+  </si>
+  <si>
+    <t>/api/my/posts/delete.jsx</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,88 +1633,88 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="12" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="2" t="b">
+      <c r="C14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G14" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>143</v>
@@ -1719,13 +1725,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>52</v>
@@ -1737,102 +1743,102 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="18" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="2" t="b">
+      <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="F18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="34">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="34">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="C21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>18</v>
@@ -1840,162 +1846,185 @@
     </row>
     <row r="23" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>145</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>52</v>
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="B25" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="F25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G28" s="34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="323" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="323" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G31" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="68:68" x14ac:dyDescent="0.2">
-      <c r="BP52" s="2" t="s">
+    <row r="53" spans="68:68" x14ac:dyDescent="0.2">
+      <c r="BP53" s="2" t="s">
         <v>74</v>
       </c>
     </row>

--- a/docs/Twitter Clone API docs.xlsx
+++ b/docs/Twitter Clone API docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/react-fun/twitter-clone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE84CA45-74A3-C940-A0DC-C97533A5D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C49BD4-7C56-E64C-85FE-38806A05C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25340" yWindow="720" windowWidth="25860" windowHeight="20500" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
+    <workbookView xWindow="34860" yWindow="18620" windowWidth="16340" windowHeight="10580" activeTab="1" xr2:uid="{5813C246-F6D0-3741-85BB-1B5F8FD0EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
   <si>
     <t>Method</t>
   </si>
@@ -691,9 +691,6 @@
     <t>/compose/tweet/index.jsx</t>
   </si>
   <si>
-    <t>/bookmarks.jsx</t>
-  </si>
-  <si>
     <t>/index.jsx</t>
   </si>
   <si>
@@ -754,6 +751,15 @@
   </si>
   <si>
     <t>/api/my/posts/delete.jsx</t>
+  </si>
+  <si>
+    <t>/bookmarks/index.jsx</t>
+  </si>
+  <si>
+    <t>/:userName</t>
+  </si>
+  <si>
+    <t>/[...slug].jsx</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93CE9B-366E-3045-AC1D-91F5BBC2A031}">
   <dimension ref="A1:BP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -1821,7 +1827,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>109</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="170" x14ac:dyDescent="0.2">
@@ -1950,19 +1956,19 @@
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>118</v>
@@ -2039,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B0B0AB-285A-984C-9A11-66BA095C2B90}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,35 +2092,35 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,13 +2128,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,13 +2142,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,13 +2156,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,13 +2170,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,13 +2184,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2192,12 +2198,26 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2365,7 +2385,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2433,7 +2453,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2465,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>57</v>
@@ -2494,13 +2514,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>41</v>
@@ -2512,16 +2532,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>12</v>
@@ -2537,7 +2557,7 @@
       </c>
       <c r="C20" s="22"/>
       <c r="E20" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>12</v>
@@ -2557,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="13"/>
     </row>
@@ -2575,26 +2595,26 @@
     <row r="23" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
       <c r="E23" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="13"/>
       <c r="E24" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,10 +2623,10 @@
         <v>84</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -2685,7 +2705,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -2708,7 +2728,7 @@
         <v>44</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H34" s="13"/>
     </row>
